--- a/Integradora/05_PuzzleTechnologies/Anexos/Riesgos_Final.xlsx
+++ b/Integradora/05_PuzzleTechnologies/Anexos/Riesgos_Final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dioxis\Desktop\Actividades de Integradora\Parcial2\Act05\Anexos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dioxis\Documents\GitHub\DistribuidoraMueblesMaravatio\Integradora\05_PuzzleTechnologies\Anexos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,6 @@
     <definedName name="Exposure">[1]Exposure!$S$4:$U$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1185,30 +1184,18 @@
     <t>MMC_143</t>
   </si>
   <si>
-    <t>generar reglas y normas de esta manera tener una mejor organización y una buena forma de trabajo</t>
-  </si>
-  <si>
     <t>MMC_144</t>
   </si>
   <si>
     <t>MMC_145</t>
   </si>
   <si>
-    <t xml:space="preserve">dar una proteccion a la base de datos mediante un espejo para mantener la informacion resguardada en otro equipo para eviatar perdidas teniendo diversos respaldos </t>
-  </si>
-  <si>
     <t>MMC_146</t>
   </si>
   <si>
-    <t xml:space="preserve">contratar personas con las actutudes para poder ralizar o desempeñar las tareas que se le impusieron de una forma obtima teniendo en cuenta los aspectos eticos con los que cuenta el misma </t>
-  </si>
-  <si>
     <t>MMC_152</t>
   </si>
   <si>
-    <t xml:space="preserve">para evitar que las partes cambien de roles se debe de tener una comunicación dentro del equipo de trabajo para una mejor division y realizacion de trabajo </t>
-  </si>
-  <si>
     <t>MMC_153</t>
   </si>
   <si>
@@ -1239,27 +1226,6 @@
     <t>MMC_151</t>
   </si>
   <si>
-    <t xml:space="preserve">se tiene que contar con la posibilidad de apertura de nuevos apartados dentro de la página web ya que dentro de las expectativas esta la satisfacción del cliente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En la interfaz se necesita una mejor usabilidad en la interacción servidor cliente por la misma razon se contrataria un hosting deacuerdo a las necesidades de los clientes para asi ofrecer un mejor servicio </t>
-  </si>
-  <si>
-    <t>dar mantenimiento constante en el uso de base de datos a fin de evitar riesgos y obtener mejores resultados dentro de la pagina web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ofrecer calidad en los productos o servicios que se ofertan mediante la pagina web </t>
-  </si>
-  <si>
-    <t xml:space="preserve">que la información se lleve por un canal correcto deacuerdo a las especificaciones del organigrama y para con el cliente con el afan de que se ofrezca un mejor servicio </t>
-  </si>
-  <si>
-    <t>los requisitos que tenga el proyecto deben ser especificos para dar seguimiento a cada uno de ellos y poderlos realizar en tiempo y  forma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se debe de preveer los tiempos mediante metas para cumplir en tiempo y forma con cada uno de los procesos que se deben de hacer </t>
-  </si>
-  <si>
     <t>MMC_27</t>
   </si>
   <si>
@@ -1293,21 +1259,9 @@
     <t>Establecer como un requisito qué software se ha de implementar para evitar retrasos o errores en el desarrollo.</t>
   </si>
   <si>
-    <t>Dar orden a que las tareas se realicen cuanto antes para evitar mayor resago.</t>
-  </si>
-  <si>
-    <t>Realizar un analisis adecuado con pruebas sobre las habilidades de los integrantes para asegurar que sean aptos para desarrollar las actvidades asignadas.</t>
-  </si>
-  <si>
     <t>Generar metodologías de trabajo para estructurar el avance en el desarrollo de proyecto.</t>
   </si>
   <si>
-    <t>Ralizar mantenimiento correctivo a los dispositivos cuanto antes.</t>
-  </si>
-  <si>
-    <t>Sancionar las inasistencias que efectuen los integrantes del equipo de trabajo para evitar se repitan lo menos constante posible.</t>
-  </si>
-  <si>
     <t>MMC_35</t>
   </si>
   <si>
@@ -1329,18 +1283,9 @@
     <t>MMC_42</t>
   </si>
   <si>
-    <t>Realizar una correción de lo efectuado para dar seguimiento a las tareas.</t>
-  </si>
-  <si>
-    <t>Se debe exponer al equipo de trabajo previamente el giro,  así como caraterísticas cruciales de la empresa cliente para que estén al tanto de para quién están trabajando.</t>
-  </si>
-  <si>
     <t>Accionar con alguna alternativa de trabajo para evitar se retrasen tareas, ya se sustituir al enfermo durante su ausencia.</t>
   </si>
   <si>
-    <t>Hacer analisis pertinente sobre hosting y dominio apropiados para el cliente.</t>
-  </si>
-  <si>
     <t>Firmar formatos oficiales donde el equipo de trabajo se comprometa a realizar sus labores.</t>
   </si>
   <si>
@@ -1371,9 +1316,6 @@
     <t>Es crucial que se cuente con servicios públicos para realizar el proyecto de lo contrario no se puede poner en marcha.</t>
   </si>
   <si>
-    <t>Se contrata inmediatamente a nuevo personal con aptitude necesarias.</t>
-  </si>
-  <si>
     <t>Se llama la atención a los involucrados en caso de que ello esté afectando el avance, en el peor de los casos se sanciona para evitar que sigan teniendo diferencias.</t>
   </si>
   <si>
@@ -1416,9 +1358,6 @@
     <t>MMC_102</t>
   </si>
   <si>
-    <t>Dar capacitacion de como funcionara y que rendimiento tiene el software para contar con la pocibilidad de como trabajara el proyecto.</t>
-  </si>
-  <si>
     <t>MMC_103</t>
   </si>
   <si>
@@ -1428,9 +1367,6 @@
     <t>MMC_95</t>
   </si>
   <si>
-    <t>Estar de acurdo y tener encuenta las herramientas que se tienen que tener para realizar el proyecto y tener una mejora asia el proyecto</t>
-  </si>
-  <si>
     <t>MMC_96</t>
   </si>
   <si>
@@ -1551,15 +1487,9 @@
     <t>MMC_114</t>
   </si>
   <si>
-    <t>Establecer desde al acta de inicio de proyecto las normas o estandares a emplear, así mismo los integrantes del equipo desarrollador deberán contar por lo menos con conocimientos previos de ellas.</t>
-  </si>
-  <si>
     <t>MMC_115</t>
   </si>
   <si>
-    <t>Adquir nuevas licencias de software para evitar atraso en la entrega de actividades.</t>
-  </si>
-  <si>
     <t>MMC_116</t>
   </si>
   <si>
@@ -1581,9 +1511,6 @@
     <t>MMC_119</t>
   </si>
   <si>
-    <t>Bloquear páginas innecesarias para el desarrollo del proyecto, además de evitar la descarga de archivos de dudosa prodecencia, así mismo como hacer respaldos.</t>
-  </si>
-  <si>
     <t>MMC_120</t>
   </si>
   <si>
@@ -1599,15 +1526,9 @@
     <t>MMC_122</t>
   </si>
   <si>
-    <t>Continuar con el plan de activdades establecido en la planeación de Microsoft Project para evitar atrasos en la elaboración de tareas.</t>
-  </si>
-  <si>
     <t>MMC_123</t>
   </si>
   <si>
-    <t>Establecer en la acta de inicio del proyecto que se realizarán minutas de reunión para evitar malos entenidos entre los involucrados.</t>
-  </si>
-  <si>
     <t>MMC_124</t>
   </si>
   <si>
@@ -1617,21 +1538,12 @@
     <t>MMC_125</t>
   </si>
   <si>
-    <t>Realización constante de respaldos en la nube, uso de materiales de protección contra el agua (bolsas especial, etc)</t>
-  </si>
-  <si>
     <t>MMC_126</t>
   </si>
   <si>
-    <t>Mantenerse informarmado acerca de los riesgos climatologicos con respecto a la ubicación donde se encuntra nuestro lugar de trabajo.</t>
-  </si>
-  <si>
     <t>MMC_127</t>
   </si>
   <si>
-    <t>Comprobar que tareas se pueden seguir realizando donde no se involucre el uso de equipos eléctronicos.</t>
-  </si>
-  <si>
     <t>MMC_128</t>
   </si>
   <si>
@@ -1644,9 +1556,6 @@
     <t>MMC_130</t>
   </si>
   <si>
-    <t>Encontrar la forma de recuperar la información y empezar a seguir las politicas respecto a alimentos o bebidas y recomendaciones de respaldos.</t>
-  </si>
-  <si>
     <t>MMC_131</t>
   </si>
   <si>
@@ -1656,15 +1565,9 @@
     <t>MMC_132</t>
   </si>
   <si>
-    <t>Hacer las correciones donde se haga la observación para que el proyecto cumpla con los requisitos del cliente.</t>
-  </si>
-  <si>
     <t>El analista debe tener documentados los antecedentes de la empresa para evaluar el hardware e informar al equipo de desarrollo.</t>
   </si>
   <si>
-    <t>Revisar los curriculums de los desarrolladores con la finalidad de conocer sus conocimientos.</t>
-  </si>
-  <si>
     <t>MMC_053</t>
   </si>
   <si>
@@ -1680,12 +1583,6 @@
     <t>MMC_057</t>
   </si>
   <si>
-    <t>El equipo de desarrollo y el cliente deben firmar el acta de inicio del proyecto y revisar la planeacion.</t>
-  </si>
-  <si>
-    <t>Intercambiar los roles si el lider no tiene buen desempeño.</t>
-  </si>
-  <si>
     <t>Asignar mas recursos humanos para aminorar el trabajo</t>
   </si>
   <si>
@@ -1746,39 +1643,15 @@
     <t>Desconectar los equipos de computo durante este periodo para evitar que estos sufran daños.</t>
   </si>
   <si>
-    <t>Mostrar al cliente la planeacion y requerimientos explicarle que hacer cambios repentinos afecta la terminacion del proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asignar a otra persona del equipo de trabajo que continue con las negociaciones con el cliente. </t>
-  </si>
-  <si>
-    <t>Leer la documentacion echa por el analista para elgir el ciclo correcto de acuerdo a la inmensidad del proyecto.</t>
-  </si>
-  <si>
-    <t>El lider debe supervisar el cumplimiento de las fases de acuerdo al ciclo de vida asignando las actividades a cada integrante del equipo de desarrollo.</t>
-  </si>
-  <si>
-    <t>El analista es el encargado de asignar recursos y realizar la planeacion asi como definir losobjetivos.</t>
-  </si>
-  <si>
-    <t>Otorgar mas recursos humanos para la reparacion de los modulos que no funcionen en su totalidad.</t>
-  </si>
-  <si>
     <t>Capacitar a los desarrolladores durante el transcurso del proyecto de acuerdo a su rol.</t>
   </si>
   <si>
-    <t>Realizar respaldos de los avances del proyecto en algun repositorio en internet y en las laptops del equipo de trabajo.</t>
-  </si>
-  <si>
     <t>Pedir especificaciones al encargado de asignar dichas tareas mediante el dialogo directo.</t>
   </si>
   <si>
     <t>El diseñador debe hacer un estudio del mercado meta y estar en constante comunicación con el cliente.</t>
   </si>
   <si>
-    <t>Usar plantillas para la documentacion del proyecto, identificar estandares que se puedan aplicar.</t>
-  </si>
-  <si>
     <t>JMSD</t>
   </si>
   <si>
@@ -1851,18 +1724,12 @@
     <t>Realizar una definición clara y precisa de lo requerimientos.</t>
   </si>
   <si>
-    <t>Establecer quien asisitirá a las reuniones con el cliente, tomando el cuenta la ubicación o fechas.</t>
-  </si>
-  <si>
     <t>Uso de metodologías de programación, documentación del código, análisis previo a la programación.</t>
   </si>
   <si>
     <t>Aceptará los términos legales y se comprometerá a adquirir de forma legal sus herramientas de trabajo.</t>
   </si>
   <si>
-    <t>Mantener el alcanse del proyecto como se establecio al inicio del proyecto devido a que el tiempo, costos y requisitos ya estan repartidos para ello, y si se producen cambio se puede llagar a un desface de tiempo y dinero el cual nos pejudica como empresa.</t>
-  </si>
-  <si>
     <t>Tener distintos respaldos del sistema para poder realizar las pruebas y percatarnos de los errores para corregirlos en el proyecto original.</t>
   </si>
   <si>
@@ -1872,19 +1739,151 @@
     <t xml:space="preserve">Para que el proyecto no carezca de flexibilidad el Project se está constantemente adaptándose a los cambios presentados. </t>
   </si>
   <si>
-    <t xml:space="preserve">para poder evitar la perdida de la propiedad intelectual es importante registrar algún proyecto, ya se a una aplicación, alguna ilustración, melodía, en teoría cualquier idea o innovación que tengas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">se tomaran medidas como checar la información o el material proporcionado por los proveedores en además de tener algún medio para comunicarnos y ser específicos con las peticiones que les hagamos a los proveedores. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">procurar tener una buena administración y organización para evitar que se mesclen las los distintos conflictos que se presentes y no tengan un efecto tan negativo para las estrategias que se han tomado anterior mente como empresa. </t>
-  </si>
-  <si>
-    <t>leer bien la información para ver que los requisitos o requerimientos funcionales que tuvimos como resultado tengan una buena implantación y que tengan que ver con los procesos.</t>
-  </si>
-  <si>
-    <t>verificar los tiempos que  tenemos para cada una de las actividades y realizar una ruta critica para en cuales de las actividades tenemos la oportunidad de prolongar un poco su realización</t>
+    <t xml:space="preserve">Para poder evitar la perdida de la propiedad intelectual es importante registrar algún proyecto, ya se a una aplicación, alguna ilustración, melodía, en teoría cualquier idea o innovación que tengas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se tomarán medidas como checar la información o el material proporcionado por los proveedores en además de tener algún medio para comunicarnos y ser específicos con las peticiones que les hagamos a los proveedores. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procurar tener una buena administración y organización para evitar que se mesclen las los distintos conflictos que se presentes y no tengan un efecto tan negativo para las estrategias que se han tomado anterior mente como empresa. </t>
+  </si>
+  <si>
+    <t>Leer bien la información para ver que los requisitos o requerimientos funcionales que tuvimos como resultado tengan una buena implantación y que tengan que ver con los procesos.</t>
+  </si>
+  <si>
+    <t>Verificar los tiempos que  tenemos para cada una de las actividades y realizar una ruta critica para en cuales de las actividades tenemos la oportunidad de prolongar un poco su realización</t>
+  </si>
+  <si>
+    <t>Generar reglas y normas de esta manera tener una mejor organización y una buena forma de trabajo</t>
+  </si>
+  <si>
+    <t>Dar mantenimiento constante en el uso de base de datos a fin de evitar riesgos y obtener mejores resultados dentro de la pagina web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofrecer calidad en los productos o servicios que se ofertan mediante la pagina web </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se tiene que contar con la posibilidad de apertura de nuevos apartados dentro de la página web ya que dentro de las expectativas esta la satisfacción del cliente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se debe de prever los tiempos mediante metas para cumplir en tiempo y forma con cada uno de los procesos que se deben de hacer </t>
+  </si>
+  <si>
+    <t>Dar orden a que las tareas se realicen cuanto antes para evitar mayor rezago.</t>
+  </si>
+  <si>
+    <t>Realizar un análisis adecuado con pruebas sobre las habilidades de los integrantes para asegurar que sean aptos para desarrollar las actividades asignadas.</t>
+  </si>
+  <si>
+    <t>Realizar mantenimiento correctivo a los dispositivos cuanto antes.</t>
+  </si>
+  <si>
+    <t>Sancionar las inasistencias que efectúen los integrantes del equipo de trabajo para evitar se repitan lo menos constante posible.</t>
+  </si>
+  <si>
+    <t>Realizar una corrección de lo efectuado para dar seguimiento a las tareas.</t>
+  </si>
+  <si>
+    <t>Se debe exponer al equipo de trabajo previamente el giro,  así como características cruciales de la empresa cliente para que estén al tanto de para quién están trabajando.</t>
+  </si>
+  <si>
+    <t>Hacer análisis pertinente sobre hosting y dominio apropiados para el cliente.</t>
+  </si>
+  <si>
+    <t>Se contrata inmediatamente a nuevo personal con aptitudes necesarias.</t>
+  </si>
+  <si>
+    <t>Dar capacitación de como funcionara y que rendimiento tiene el software para contar con la posibilidad de como trabajara el proyecto.</t>
+  </si>
+  <si>
+    <t>Establecer desde al acta de inicio de proyecto las normas o estándares a emplear, así mismo los integrantes del equipo desarrollador deberán contar por lo menos con conocimientos previos de ellas.</t>
+  </si>
+  <si>
+    <t>Adquirir nuevas licencias de software para evitar atraso en la entrega de actividades.</t>
+  </si>
+  <si>
+    <t>Bloquear páginas innecesarias para el desarrollo del proyecto, además de evitar la descarga de archivos de dudosa procedencia, así mismo como hacer respaldos.</t>
+  </si>
+  <si>
+    <t>Continuar con el plan de actividades establecido en la planeación de Microsoft Project para evitar atrasos en la elaboración de tareas.</t>
+  </si>
+  <si>
+    <t>Establecer en la acta de inicio del proyecto que se realizarán minutas de reunión para evitar malos entendidos entre los involucrados.</t>
+  </si>
+  <si>
+    <t>Realización constante de respaldos en la nube, uso de materiales de protección contra el agua (bolsas especial, etc.)</t>
+  </si>
+  <si>
+    <t>Mantenerse informado acerca de los riesgos climatológicos con respecto a la ubicación donde se encuentra nuestro lugar de trabajo.</t>
+  </si>
+  <si>
+    <t>Comprobar que tareas se pueden seguir realizando donde no se involucre el uso de equipos electrónicos.</t>
+  </si>
+  <si>
+    <t>Establecer quien asistirá a las reuniones con el cliente, tomando el cuenta la ubicación o fechas.</t>
+  </si>
+  <si>
+    <t>Encontrar la forma de recuperar la información y empezar a seguir las políticas respecto a alimentos o bebidas y recomendaciones de respaldos.</t>
+  </si>
+  <si>
+    <t>Hacer las correcciones donde se haga la observación para que el proyecto cumpla con los requisitos del cliente.</t>
+  </si>
+  <si>
+    <t>Revisar los currículos de los desarrolladores con la finalidad de conocer sus conocimientos.</t>
+  </si>
+  <si>
+    <t>El equipo de desarrollo y el cliente deben firmar el acta de inicio del proyecto y revisar la planeación.</t>
+  </si>
+  <si>
+    <t>Intercambiar los roles si el líder no tiene buen desempeño.</t>
+  </si>
+  <si>
+    <t>Mostrar al cliente la planeación y requerimientos explicarle que hacer cambios repentinos afecta la terminación del proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asignar a otra persona del equipo de trabajo que continúe con las negociaciones con el cliente. </t>
+  </si>
+  <si>
+    <t>Leer la documentación echa por el analista para elegir el ciclo correcto de acuerdo a la inmensidad del proyecto.</t>
+  </si>
+  <si>
+    <t>El líder debe supervisar el cumplimiento de las fases de acuerdo al ciclo de vida asignando las actividades a cada integrante del equipo de desarrollo.</t>
+  </si>
+  <si>
+    <t>El analista es el encargado de asignar recursos y realizar la planeación así como definir los objetivos.</t>
+  </si>
+  <si>
+    <t>Otorgar mas recursos humanos para la reparación de los módulos que no funcionen en su totalidad.</t>
+  </si>
+  <si>
+    <t>Realizar respaldos de los avances del proyecto en algún repositorio en internet y en las laptops del equipo de trabajo.</t>
+  </si>
+  <si>
+    <t>Usar plantillas para la documentación del proyecto, identificar estándares que se puedan aplicar.</t>
+  </si>
+  <si>
+    <t>Mantener el alcance del proyecto como se estableció al inicio del proyecto debido a que el tiempo, costos y requisitos ya están repartidos para ello, y si se producen cambio se puede llagar a un desfase de tiempo y dinero el cual nos perjudica como empresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dar una protección a la base de datos mediante un espejo para mantener la información resguardada en otro equipo para evitar perdidas teniendo diversos respaldos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contratar personas con las actitudes para poder realizar o desempeñar las tareas que se le impusieron de una forma optima teniendo en cuenta los aspectos éticos con los que cuenta el misma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para evitar que las partes cambien de roles se debe de tener una comunicación dentro del equipo de trabajo para una mejor división y realización de trabajo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la interfaz se necesita una mejor usabilidad en la interacción servidor cliente por la misma razón se contrataría un hosting desacuerdo a las necesidades de los clientes para así ofrecer un mejor servicio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que la información se lleve por un canal correcto desacuerdo a las especificaciones del organigrama y para con el cliente con el afán de que se ofrezca un mejor servicio </t>
+  </si>
+  <si>
+    <t>Los requisitos que tenga el proyecto deben ser específicos para dar seguimiento a cada uno de ellos y poderlos realizar en tiempo y  forma</t>
+  </si>
+  <si>
+    <t>Estar de acurdo y tener encuentra las herramientas que se tienen que tener para realizar el proyecto y tener una mejora hacia el proyecto</t>
   </si>
 </sst>
 </file>
@@ -2166,15 +2165,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2214,12 +2204,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2274,6 +2258,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3307,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>602</v>
+        <v>560</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -3327,7 +3326,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>584</v>
+        <v>542</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -3357,10 +3356,10 @@
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
@@ -3377,7 +3376,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>584</v>
+        <v>542</v>
       </c>
       <c r="B18" s="12">
         <v>43636</v>
@@ -3404,10 +3403,10 @@
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
@@ -3423,7 +3422,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>584</v>
+        <v>542</v>
       </c>
       <c r="B24" s="12">
         <v>43636</v>
@@ -3450,12 +3449,12 @@
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="35"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="67"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -3607,7 +3606,7 @@
       <c r="A10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -3619,10 +3618,10 @@
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -3634,10 +3633,10 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -3651,7 +3650,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="29" t="s">
@@ -3666,7 +3665,7 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -3681,10 +3680,10 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -3696,7 +3695,7 @@
       <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" s="24" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="34" t="s">
         <v>40</v>
       </c>
       <c r="B16" s="29" t="s">
@@ -3714,7 +3713,7 @@
       <c r="A17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="35" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -3726,10 +3725,10 @@
       <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -3741,7 +3740,7 @@
       <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" s="24" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -3756,10 +3755,10 @@
       <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="25" t="s">
@@ -3771,10 +3770,10 @@
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -3786,10 +3785,10 @@
       <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="34" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="25" t="s">
@@ -3801,10 +3800,10 @@
       <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="25" t="s">
@@ -3816,10 +3815,10 @@
       <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" s="24" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -3831,10 +3830,10 @@
       <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" s="24" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="25" t="s">
@@ -3861,10 +3860,10 @@
       <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="25" t="s">
@@ -3876,7 +3875,7 @@
       <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" s="24" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="20" t="s">
@@ -3891,10 +3890,10 @@
       <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="34" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="25" t="s">
@@ -3909,7 +3908,7 @@
       <c r="A30" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="34" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="25" t="s">
@@ -4377,7 +4376,7 @@
       <c r="B61" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="36" t="s">
         <v>277</v>
       </c>
       <c r="D61" s="23"/>
@@ -4794,7 +4793,7 @@
       <c r="A89" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B89" s="38" t="s">
+      <c r="B89" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C89" s="25" t="s">
@@ -4809,7 +4808,7 @@
       <c r="A90" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B90" s="38" t="s">
+      <c r="B90" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C90" s="25" t="s">
@@ -4824,7 +4823,7 @@
       <c r="A91" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="35" t="s">
         <v>67</v>
       </c>
       <c r="C91" s="25" t="s">
@@ -4839,7 +4838,7 @@
       <c r="A92" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C92" s="25" t="s">
@@ -4854,7 +4853,7 @@
       <c r="A93" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B93" s="38" t="s">
+      <c r="B93" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C93" s="25" t="s">
@@ -4869,7 +4868,7 @@
       <c r="A94" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B94" s="38" t="s">
+      <c r="B94" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C94" s="25" t="s">
@@ -4884,7 +4883,7 @@
       <c r="A95" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="B95" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C95" s="25" t="s">
@@ -4899,7 +4898,7 @@
       <c r="A96" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B96" s="38" t="s">
+      <c r="B96" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C96" s="25" t="s">
@@ -4914,7 +4913,7 @@
       <c r="A97" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B97" s="38" t="s">
+      <c r="B97" s="35" t="s">
         <v>70</v>
       </c>
       <c r="C97" s="25" t="s">
@@ -4929,7 +4928,7 @@
       <c r="A98" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B98" s="38" t="s">
+      <c r="B98" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C98" s="25" t="s">
@@ -4944,7 +4943,7 @@
       <c r="A99" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B99" s="38" t="s">
+      <c r="B99" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C99" s="25" t="s">
@@ -5180,20 +5179,20 @@
       <c r="F114" s="23"/>
       <c r="G114" s="23"/>
     </row>
-    <row r="115" spans="1:7" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="37" t="s">
-        <v>588</v>
+    <row r="115" spans="1:7" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="34" t="s">
+        <v>546</v>
       </c>
       <c r="B115" s="29" t="s">
         <v>23</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>594</v>
-      </c>
-      <c r="D115" s="40"/>
-      <c r="E115" s="40"/>
-      <c r="F115" s="40"/>
-      <c r="G115" s="40"/>
+        <v>552</v>
+      </c>
+      <c r="D115" s="37"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
     </row>
     <row r="116" spans="1:7" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
@@ -5205,29 +5204,29 @@
       <c r="C116" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="D116" s="42" t="s">
-        <v>582</v>
-      </c>
-      <c r="E116" s="42" t="s">
-        <v>583</v>
+      <c r="D116" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="E116" s="39" t="s">
+        <v>541</v>
       </c>
       <c r="F116" s="23"/>
       <c r="G116" s="23"/>
     </row>
-    <row r="117" spans="1:7" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="37" t="s">
-        <v>589</v>
+    <row r="117" spans="1:7" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="34" t="s">
+        <v>547</v>
       </c>
       <c r="B117" s="29" t="s">
         <v>23</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="D117" s="40"/>
-      <c r="E117" s="40"/>
-      <c r="F117" s="40"/>
-      <c r="G117" s="40"/>
+        <v>553</v>
+      </c>
+      <c r="D117" s="37"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="37"/>
     </row>
     <row r="118" spans="1:7" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
@@ -5239,11 +5238,11 @@
       <c r="C118" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="D118" s="42" t="s">
-        <v>583</v>
-      </c>
-      <c r="E118" s="42" t="s">
-        <v>584</v>
+      <c r="D118" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="E118" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="F118" s="23"/>
       <c r="G118" s="23"/>
@@ -5258,11 +5257,11 @@
       <c r="C119" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="D119" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E119" s="42" t="s">
-        <v>584</v>
+      <c r="D119" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E119" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="F119" s="23"/>
       <c r="G119" s="23"/>
@@ -5271,17 +5270,17 @@
       <c r="A120" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B120" s="38" t="s">
+      <c r="B120" s="35" t="s">
         <v>70</v>
       </c>
       <c r="C120" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="D120" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E120" s="42" t="s">
-        <v>585</v>
+      <c r="D120" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E120" s="39" t="s">
+        <v>543</v>
       </c>
       <c r="F120" s="23"/>
       <c r="G120" s="23"/>
@@ -5290,17 +5289,17 @@
       <c r="A121" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B121" s="38" t="s">
+      <c r="B121" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C121" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="D121" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E121" s="42" t="s">
-        <v>584</v>
+      <c r="D121" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E121" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="F121" s="23"/>
       <c r="G121" s="23"/>
@@ -5309,17 +5308,17 @@
       <c r="A122" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B122" s="38" t="s">
+      <c r="B122" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C122" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="D122" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E122" s="42" t="s">
-        <v>584</v>
+      <c r="D122" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E122" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="F122" s="23"/>
       <c r="G122" s="23"/>
@@ -5328,17 +5327,17 @@
       <c r="A123" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B123" s="38" t="s">
+      <c r="B123" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C123" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="D123" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E123" s="42" t="s">
-        <v>584</v>
+      <c r="D123" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E123" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="F123" s="23"/>
       <c r="G123" s="23"/>
@@ -5347,17 +5346,17 @@
       <c r="A124" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B124" s="38" t="s">
+      <c r="B124" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>603</v>
-      </c>
-      <c r="D124" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E124" s="42" t="s">
-        <v>584</v>
+        <v>561</v>
+      </c>
+      <c r="D124" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E124" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="F124" s="23"/>
       <c r="G124" s="23"/>
@@ -5366,17 +5365,17 @@
       <c r="A125" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B125" s="38" t="s">
+      <c r="B125" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C125" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="D125" s="42" t="s">
-        <v>586</v>
-      </c>
-      <c r="E125" s="42" t="s">
-        <v>587</v>
+      <c r="D125" s="39" t="s">
+        <v>544</v>
+      </c>
+      <c r="E125" s="39" t="s">
+        <v>545</v>
       </c>
       <c r="F125" s="23"/>
       <c r="G125" s="23"/>
@@ -5385,17 +5384,17 @@
       <c r="A126" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B126" s="38" t="s">
+      <c r="B126" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C126" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="D126" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E126" s="42" t="s">
-        <v>584</v>
+      <c r="D126" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E126" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="23"/>
@@ -5404,17 +5403,17 @@
       <c r="A127" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B127" s="38" t="s">
+      <c r="B127" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C127" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="D127" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E127" s="42" t="s">
-        <v>584</v>
+      <c r="D127" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E127" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="F127" s="23"/>
       <c r="G127" s="23"/>
@@ -5423,17 +5422,17 @@
       <c r="A128" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B128" s="38" t="s">
+      <c r="B128" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C128" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="D128" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E128" s="42" t="s">
-        <v>585</v>
+      <c r="D128" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E128" s="39" t="s">
+        <v>543</v>
       </c>
       <c r="F128" s="23"/>
       <c r="G128" s="23"/>
@@ -5448,29 +5447,29 @@
       <c r="C129" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="D129" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E129" s="42" t="s">
-        <v>584</v>
+      <c r="D129" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E129" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="F129" s="23"/>
       <c r="G129" s="23"/>
     </row>
-    <row r="130" spans="1:7" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="37" t="s">
-        <v>590</v>
-      </c>
-      <c r="B130" s="37" t="s">
+    <row r="130" spans="1:7" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130" s="34" t="s">
+        <v>548</v>
+      </c>
+      <c r="B130" s="34" t="s">
         <v>51</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="D130" s="40"/>
-      <c r="E130" s="40"/>
-      <c r="F130" s="40"/>
-      <c r="G130" s="40"/>
+        <v>554</v>
+      </c>
+      <c r="D130" s="37"/>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="37"/>
     </row>
     <row r="131" spans="1:7" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
@@ -5482,11 +5481,11 @@
       <c r="C131" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="D131" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E131" s="42" t="s">
-        <v>584</v>
+      <c r="D131" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E131" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="F131" s="23"/>
       <c r="G131" s="23"/>
@@ -5501,44 +5500,44 @@
       <c r="C132" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="D132" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E132" s="42" t="s">
-        <v>584</v>
+      <c r="D132" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E132" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="F132" s="23"/>
       <c r="G132" s="23"/>
     </row>
-    <row r="133" spans="1:7" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A133" s="37" t="s">
-        <v>591</v>
-      </c>
-      <c r="B133" s="37" t="s">
+    <row r="133" spans="1:7" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A133" s="34" t="s">
+        <v>549</v>
+      </c>
+      <c r="B133" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="D133" s="40"/>
-      <c r="E133" s="40"/>
-      <c r="F133" s="40"/>
-      <c r="G133" s="40"/>
-    </row>
-    <row r="134" spans="1:7" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A134" s="37" t="s">
-        <v>592</v>
-      </c>
-      <c r="B134" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="D133" s="37"/>
+      <c r="E133" s="37"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="37"/>
+    </row>
+    <row r="134" spans="1:7" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A134" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="B134" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>598</v>
-      </c>
-      <c r="D134" s="40"/>
-      <c r="E134" s="40"/>
-      <c r="F134" s="40"/>
-      <c r="G134" s="40"/>
+        <v>556</v>
+      </c>
+      <c r="D134" s="37"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="37"/>
     </row>
     <row r="135" spans="1:7" s="24" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="20" t="s">
@@ -5550,29 +5549,29 @@
       <c r="C135" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="D135" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E135" s="42" t="s">
-        <v>584</v>
+      <c r="D135" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E135" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="F135" s="23"/>
       <c r="G135" s="23"/>
     </row>
-    <row r="136" spans="1:7" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A136" s="37" t="s">
-        <v>599</v>
-      </c>
-      <c r="B136" s="37" t="s">
+    <row r="136" spans="1:7" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A136" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="B136" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>600</v>
-      </c>
-      <c r="D136" s="40"/>
-      <c r="E136" s="40"/>
-      <c r="F136" s="40"/>
-      <c r="G136" s="40"/>
+        <v>558</v>
+      </c>
+      <c r="D136" s="37"/>
+      <c r="E136" s="37"/>
+      <c r="F136" s="37"/>
+      <c r="G136" s="37"/>
     </row>
     <row r="137" spans="1:7" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A137" s="20" t="s">
@@ -5584,11 +5583,11 @@
       <c r="C137" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="D137" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E137" s="42" t="s">
-        <v>584</v>
+      <c r="D137" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E137" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="F137" s="23"/>
       <c r="G137" s="23"/>
@@ -5603,11 +5602,11 @@
       <c r="C138" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="D138" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E138" s="42" t="s">
-        <v>584</v>
+      <c r="D138" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E138" s="39" t="s">
+        <v>542</v>
       </c>
       <c r="F138" s="23"/>
       <c r="G138" s="23"/>
@@ -5622,11 +5621,11 @@
       <c r="C139" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="D139" s="42" t="s">
-        <v>584</v>
-      </c>
-      <c r="E139" s="42" t="s">
-        <v>585</v>
+      <c r="D139" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E139" s="39" t="s">
+        <v>543</v>
       </c>
       <c r="F139" s="23"/>
       <c r="G139" s="23"/>
@@ -5641,29 +5640,29 @@
       <c r="C140" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="D140" s="42" t="s">
-        <v>587</v>
-      </c>
-      <c r="E140" s="42" t="s">
-        <v>585</v>
+      <c r="D140" s="39" t="s">
+        <v>545</v>
+      </c>
+      <c r="E140" s="39" t="s">
+        <v>543</v>
       </c>
       <c r="F140" s="23"/>
       <c r="G140" s="23"/>
     </row>
-    <row r="141" spans="1:7" s="41" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="37" t="s">
-        <v>593</v>
-      </c>
-      <c r="B141" s="37" t="s">
+    <row r="141" spans="1:7" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A141" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="B141" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="D141" s="40"/>
-      <c r="E141" s="40"/>
-      <c r="F141" s="40"/>
-      <c r="G141" s="40"/>
+        <v>559</v>
+      </c>
+      <c r="D141" s="37"/>
+      <c r="E141" s="37"/>
+      <c r="F141" s="37"/>
+      <c r="G141" s="37"/>
     </row>
     <row r="142" spans="1:7" s="24" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="20" t="s">
@@ -5823,7 +5822,7 @@
         <v>59</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="D152" s="23"/>
       <c r="E152" s="23"/>
@@ -5849,7 +5848,7 @@
       <c r="A154" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="B154" s="38" t="s">
+      <c r="B154" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C154" s="25" t="s">
@@ -5864,7 +5863,7 @@
       <c r="A155" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B155" s="38" t="s">
+      <c r="B155" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C155" s="25" t="s">
@@ -5879,7 +5878,7 @@
       <c r="A156" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B156" s="38" t="s">
+      <c r="B156" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C156" s="25" t="s">
@@ -5894,7 +5893,7 @@
       <c r="A157" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B157" s="38" t="s">
+      <c r="B157" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C157" s="25" t="s">
@@ -5909,7 +5908,7 @@
       <c r="A158" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B158" s="38" t="s">
+      <c r="B158" s="35" t="s">
         <v>36</v>
       </c>
       <c r="C158" s="22" t="s">
@@ -5924,7 +5923,7 @@
       <c r="A159" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="B159" s="38" t="s">
+      <c r="B159" s="35" t="s">
         <v>59</v>
       </c>
       <c r="C159" s="25" t="s">
@@ -5939,7 +5938,7 @@
       <c r="A160" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="B160" s="38" t="s">
+      <c r="B160" s="35" t="s">
         <v>59</v>
       </c>
       <c r="C160" s="25" t="s">
@@ -5954,7 +5953,7 @@
       <c r="A161" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B161" s="38" t="s">
+      <c r="B161" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C161" s="25" t="s">
@@ -5969,7 +5968,7 @@
       <c r="A162" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B162" s="38" t="s">
+      <c r="B162" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C162" s="25" t="s">
@@ -5984,7 +5983,7 @@
       <c r="A163" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="B163" s="38" t="s">
+      <c r="B163" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C163" s="25" t="s">
@@ -5999,7 +5998,7 @@
       <c r="A164" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="B164" s="38" t="s">
+      <c r="B164" s="35" t="s">
         <v>59</v>
       </c>
       <c r="C164" s="25" t="s">
@@ -6014,7 +6013,7 @@
       <c r="A165" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="B165" s="38" t="s">
+      <c r="B165" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C165" s="25" t="s">
@@ -6029,7 +6028,7 @@
       <c r="A166" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="B166" s="38" t="s">
+      <c r="B166" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C166" s="25" t="s">
@@ -6044,7 +6043,7 @@
       <c r="A167" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="B167" s="38" t="s">
+      <c r="B167" s="35" t="s">
         <v>51</v>
       </c>
       <c r="C167" s="25" t="s">
@@ -6059,7 +6058,7 @@
       <c r="A168" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="B168" s="38" t="s">
+      <c r="B168" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C168" s="25" t="s">
@@ -6096,8 +6095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6167,7 +6166,7 @@
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="19"/>
@@ -6201,13 +6200,13 @@
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7" s="24" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="42" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="23"/>
@@ -6216,14 +6215,14 @@
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>612</v>
+      <c r="C11" s="42" t="s">
+        <v>568</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -6231,13 +6230,13 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="42" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="23"/>
@@ -6246,13 +6245,13 @@
       <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="42" t="s">
         <v>97</v>
       </c>
       <c r="D13" s="23"/>
@@ -6260,14 +6259,14 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:7" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+    <row r="14" spans="1:7" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="42" t="s">
         <v>110</v>
       </c>
       <c r="D14" s="23"/>
@@ -6276,13 +6275,13 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="42" t="s">
         <v>98</v>
       </c>
       <c r="D15" s="23"/>
@@ -6290,14 +6289,14 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:7" s="24" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+    <row r="16" spans="1:7" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="42" t="s">
         <v>99</v>
       </c>
       <c r="D16" s="23"/>
@@ -6306,13 +6305,13 @@
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="42" t="s">
         <v>87</v>
       </c>
       <c r="D17" s="23"/>
@@ -6320,14 +6319,14 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="1:7" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+    <row r="18" spans="1:7" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="43" t="s">
         <v>100</v>
       </c>
       <c r="D18" s="23"/>
@@ -6335,104 +6334,104 @@
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
     </row>
-    <row r="19" spans="1:7" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+    <row r="19" spans="1:7" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="37"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
     </row>
-    <row r="21" spans="1:7" s="24" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+    <row r="21" spans="1:7" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
+    <row r="23" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:7" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
+    <row r="24" spans="1:7" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="37"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" s="24" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="44" t="s">
         <v>106</v>
       </c>
       <c r="D25" s="23" t="s">
@@ -6442,14 +6441,14 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="1:7" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="43" t="s">
+    <row r="26" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="45" t="s">
         <v>107</v>
       </c>
       <c r="D26" s="23"/>
@@ -6457,14 +6456,14 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
     </row>
-    <row r="27" spans="1:7" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="43" t="s">
+    <row r="27" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="45" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="23"/>
@@ -6472,14 +6471,14 @@
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
     </row>
-    <row r="28" spans="1:7" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+    <row r="28" spans="1:7" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="45" t="s">
         <v>109</v>
       </c>
       <c r="D28" s="23"/>
@@ -6488,13 +6487,13 @@
       <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="44" t="s">
         <v>108</v>
       </c>
       <c r="D29" s="23"/>
@@ -6512,45 +6511,45 @@
       <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="49"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="49"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
     </row>
     <row r="33" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="49"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
     </row>
     <row r="34" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="49"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="49"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
@@ -6563,8 +6562,8 @@
       <c r="B36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="50" t="s">
-        <v>610</v>
+      <c r="C36" s="47" t="s">
+        <v>566</v>
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
@@ -6578,8 +6577,8 @@
       <c r="B37" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="50" t="s">
-        <v>613</v>
+      <c r="C37" s="47" t="s">
+        <v>569</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
@@ -6593,8 +6592,8 @@
       <c r="B38" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="50" t="s">
-        <v>614</v>
+      <c r="C38" s="47" t="s">
+        <v>570</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
@@ -6608,8 +6607,8 @@
       <c r="B39" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="50" t="s">
-        <v>615</v>
+      <c r="C39" s="47" t="s">
+        <v>571</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
@@ -6623,8 +6622,8 @@
       <c r="B40" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="50" t="s">
-        <v>616</v>
+      <c r="C40" s="47" t="s">
+        <v>572</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
@@ -6638,8 +6637,8 @@
       <c r="B41" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="50" t="s">
-        <v>617</v>
+      <c r="C41" s="47" t="s">
+        <v>573</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
@@ -6653,23 +6652,23 @@
       <c r="B42" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="52" t="s">
-        <v>384</v>
+      <c r="C42" s="54" t="s">
+        <v>574</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
     </row>
-    <row r="43" spans="1:7" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="50" t="s">
-        <v>609</v>
+      <c r="C43" s="47" t="s">
+        <v>610</v>
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
@@ -6678,13 +6677,13 @@
     </row>
     <row r="44" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="51" t="s">
-        <v>387</v>
+      <c r="C44" s="47" t="s">
+        <v>611</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
@@ -6692,14 +6691,14 @@
       <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="B45" s="53" t="s">
+      <c r="A45" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="B45" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="51" t="s">
-        <v>389</v>
+      <c r="C45" s="47" t="s">
+        <v>612</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -6707,14 +6706,14 @@
       <c r="G45" s="23"/>
     </row>
     <row r="46" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="53" t="s">
-        <v>397</v>
-      </c>
-      <c r="B46" s="54" t="s">
+      <c r="A46" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="B46" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="55" t="s">
-        <v>391</v>
+      <c r="C46" s="69" t="s">
+        <v>613</v>
       </c>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
@@ -6722,28 +6721,28 @@
       <c r="G46" s="23"/>
     </row>
     <row r="47" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="53" t="s">
-        <v>398</v>
-      </c>
-      <c r="B47" s="54" t="s">
+      <c r="A47" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="B47" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="55" t="s">
-        <v>404</v>
+      <c r="C47" s="69" t="s">
+        <v>575</v>
       </c>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
     </row>
-    <row r="48" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="53" t="s">
-        <v>399</v>
-      </c>
-      <c r="B48" s="54" t="s">
+    <row r="48" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="48" t="s">
+        <v>395</v>
+      </c>
+      <c r="B48" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="50" t="s">
         <v>369</v>
       </c>
       <c r="D48" s="23"/>
@@ -6752,14 +6751,14 @@
       <c r="G48" s="23"/>
     </row>
     <row r="49" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="B49" s="54" t="s">
+      <c r="A49" s="48" t="s">
+        <v>396</v>
+      </c>
+      <c r="B49" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="55" t="s">
-        <v>405</v>
+      <c r="C49" s="69" t="s">
+        <v>576</v>
       </c>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
@@ -6767,14 +6766,14 @@
       <c r="G49" s="23"/>
     </row>
     <row r="50" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="53" t="s">
-        <v>401</v>
-      </c>
-      <c r="B50" s="54" t="s">
+      <c r="A50" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="B50" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="55" t="s">
-        <v>402</v>
+      <c r="C50" s="69" t="s">
+        <v>577</v>
       </c>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
@@ -6782,14 +6781,14 @@
       <c r="G50" s="23"/>
     </row>
     <row r="51" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="53" t="s">
-        <v>390</v>
-      </c>
-      <c r="B51" s="54" t="s">
+      <c r="A51" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="B51" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="55" t="s">
-        <v>403</v>
+      <c r="C51" s="69" t="s">
+        <v>614</v>
       </c>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
@@ -6797,14 +6796,14 @@
       <c r="G51" s="23"/>
     </row>
     <row r="52" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="53" t="s">
-        <v>392</v>
-      </c>
-      <c r="B52" s="54" t="s">
+      <c r="A52" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="B52" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="55" t="s">
-        <v>406</v>
+      <c r="C52" s="69" t="s">
+        <v>615</v>
       </c>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
@@ -6812,29 +6811,29 @@
       <c r="G52" s="23"/>
     </row>
     <row r="53" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="53" t="s">
-        <v>393</v>
-      </c>
-      <c r="B53" s="54" t="s">
+      <c r="A53" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="B53" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="55" t="s">
-        <v>407</v>
+      <c r="C53" s="69" t="s">
+        <v>616</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
     </row>
-    <row r="54" spans="1:7" s="24" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="53" t="s">
-        <v>394</v>
-      </c>
-      <c r="B54" s="54" t="s">
+    <row r="54" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="B54" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="55" t="s">
-        <v>396</v>
+      <c r="C54" s="50" t="s">
+        <v>392</v>
       </c>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -6842,14 +6841,14 @@
       <c r="G54" s="23"/>
     </row>
     <row r="55" spans="1:7" s="24" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="53" t="s">
-        <v>395</v>
-      </c>
-      <c r="B55" s="56" t="s">
+      <c r="A55" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="B55" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="55" t="s">
-        <v>408</v>
+      <c r="C55" s="69" t="s">
+        <v>578</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
@@ -6857,45 +6856,45 @@
       <c r="G55" s="23"/>
     </row>
     <row r="56" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="46"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
     </row>
     <row r="57" spans="1:7" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="46"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
     </row>
     <row r="58" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="57"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
     </row>
     <row r="59" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="46"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
     </row>
     <row r="60" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="49"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="46"/>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
@@ -6903,13 +6902,13 @@
     </row>
     <row r="61" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="31" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="B61" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="50" t="s">
-        <v>605</v>
+      <c r="C61" s="47" t="s">
+        <v>563</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
@@ -6918,13 +6917,13 @@
     </row>
     <row r="62" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="31" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B62" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="58" t="s">
-        <v>417</v>
+      <c r="C62" s="53" t="s">
+        <v>406</v>
       </c>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
@@ -6933,28 +6932,28 @@
     </row>
     <row r="63" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="31" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B63" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="58" t="s">
-        <v>418</v>
+      <c r="C63" s="53" t="s">
+        <v>407</v>
       </c>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
     </row>
-    <row r="64" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="31" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B64" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="58" t="s">
-        <v>419</v>
+      <c r="C64" s="53" t="s">
+        <v>408</v>
       </c>
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
@@ -6963,13 +6962,13 @@
     </row>
     <row r="65" spans="1:256" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="31" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C65" s="58" t="s">
-        <v>420</v>
+      <c r="C65" s="53" t="s">
+        <v>579</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="23"/>
@@ -6978,13 +6977,13 @@
     </row>
     <row r="66" spans="1:256" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="31" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B66" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="58" t="s">
-        <v>421</v>
+      <c r="C66" s="53" t="s">
+        <v>580</v>
       </c>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -6993,13 +6992,13 @@
     </row>
     <row r="67" spans="1:256" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="31" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B67" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="59" t="s">
-        <v>422</v>
+      <c r="C67" s="54" t="s">
+        <v>409</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
@@ -7008,13 +7007,13 @@
     </row>
     <row r="68" spans="1:256" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="31" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B68" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="58" t="s">
-        <v>423</v>
+      <c r="C68" s="53" t="s">
+        <v>581</v>
       </c>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
@@ -7023,13 +7022,13 @@
     </row>
     <row r="69" spans="1:256" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="31" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B69" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="58" t="s">
-        <v>424</v>
+      <c r="C69" s="53" t="s">
+        <v>582</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
@@ -7038,13 +7037,13 @@
     </row>
     <row r="70" spans="1:256" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="B70" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="B70" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="58" t="s">
-        <v>432</v>
+      <c r="C70" s="53" t="s">
+        <v>583</v>
       </c>
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
@@ -7053,13 +7052,13 @@
     </row>
     <row r="71" spans="1:256" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" s="31" t="s">
-        <v>427</v>
-      </c>
-      <c r="B71" s="54" t="s">
+        <v>412</v>
+      </c>
+      <c r="B71" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="60" t="s">
-        <v>433</v>
+      <c r="C71" s="55" t="s">
+        <v>584</v>
       </c>
       <c r="D71" s="23"/>
       <c r="E71" s="23"/>
@@ -7068,13 +7067,13 @@
     </row>
     <row r="72" spans="1:256" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="31" t="s">
-        <v>428</v>
-      </c>
-      <c r="B72" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="B72" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="60" t="s">
-        <v>434</v>
+      <c r="C72" s="55" t="s">
+        <v>417</v>
       </c>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
@@ -7083,13 +7082,13 @@
     </row>
     <row r="73" spans="1:256" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="31" t="s">
-        <v>429</v>
-      </c>
-      <c r="B73" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="B73" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="60" t="s">
-        <v>443</v>
+      <c r="C73" s="55" t="s">
+        <v>425</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
@@ -7098,13 +7097,13 @@
     </row>
     <row r="74" spans="1:256" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="31" t="s">
-        <v>430</v>
-      </c>
-      <c r="B74" s="54" t="s">
+        <v>415</v>
+      </c>
+      <c r="B74" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="60" t="s">
-        <v>436</v>
+      <c r="C74" s="55" t="s">
+        <v>418</v>
       </c>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
@@ -7113,13 +7112,13 @@
     </row>
     <row r="75" spans="1:256" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="31" t="s">
-        <v>431</v>
-      </c>
-      <c r="B75" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="B75" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="60" t="s">
-        <v>435</v>
+      <c r="C75" s="55" t="s">
+        <v>585</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="23"/>
@@ -7128,13 +7127,13 @@
     </row>
     <row r="76" spans="1:256" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="B76" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="B76" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="60" t="s">
-        <v>437</v>
+      <c r="C76" s="55" t="s">
+        <v>419</v>
       </c>
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
@@ -7143,28 +7142,28 @@
     </row>
     <row r="77" spans="1:256" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="B77" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="B77" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="60" t="s">
-        <v>444</v>
+      <c r="C77" s="55" t="s">
+        <v>426</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="23"/>
       <c r="F77" s="23"/>
       <c r="G77" s="23"/>
     </row>
-    <row r="78" spans="1:256" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:256" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="B78" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="B78" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="60" t="s">
-        <v>445</v>
+      <c r="C78" s="55" t="s">
+        <v>427</v>
       </c>
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
@@ -7173,13 +7172,13 @@
     </row>
     <row r="79" spans="1:256" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="B79" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="B79" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="60" t="s">
-        <v>446</v>
+      <c r="C79" s="55" t="s">
+        <v>586</v>
       </c>
       <c r="D79" s="23"/>
       <c r="E79" s="23"/>
@@ -7188,800 +7187,800 @@
     </row>
     <row r="80" spans="1:256" s="24" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="B80" s="56" t="s">
+        <v>424</v>
+      </c>
+      <c r="B80" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="60" t="s">
-        <v>447</v>
-      </c>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="I80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="J80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="K80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="M80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="N80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="O80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="P80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="R80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="S80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="T80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="U80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="V80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="W80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="X80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AW80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AX80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AY80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BA80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BC80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BE80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BG80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BH80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BI80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BJ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BK80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BL80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BM80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BN80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BO80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BP80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BQ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BR80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BS80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BT80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BU80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BV80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BW80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BX80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BY80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="BZ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CA80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CB80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CC80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CD80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CE80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CF80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CG80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CH80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CI80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CJ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CK80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CL80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CM80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CN80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CO80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CP80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CQ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CR80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CS80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CT80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CU80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CV80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CW80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CX80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CY80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="CZ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DA80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DB80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DC80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DD80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DE80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DF80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DG80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DH80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DI80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DJ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DK80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DL80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DM80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DN80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DO80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DP80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DQ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DR80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DS80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DT80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DU80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DV80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DW80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DX80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DY80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="DZ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EA80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EB80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EC80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="ED80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EE80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EF80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EG80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EH80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EI80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EJ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EK80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EL80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EM80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EN80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EO80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EP80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EQ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="ER80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="ES80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="ET80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EU80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EV80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EW80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EX80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EY80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="EZ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FA80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FB80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FC80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FD80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FE80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FF80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FG80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FH80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FI80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FJ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FK80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FL80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FM80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FN80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FO80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FP80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FQ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FR80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FS80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FT80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FU80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FV80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FW80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FX80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FY80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="FZ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GA80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GB80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GC80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GD80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GE80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GF80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GG80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GH80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GI80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GJ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GK80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GL80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GM80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GN80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GO80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GP80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GQ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GR80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GS80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GT80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GU80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GV80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GW80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GX80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GY80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="GZ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HA80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HB80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HC80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HD80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HE80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HF80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HG80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HH80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HI80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HJ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HK80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HL80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HM80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HN80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HO80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HP80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HQ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HR80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HS80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HT80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HU80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HV80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HW80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HX80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HY80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="HZ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IA80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IB80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IC80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="ID80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IE80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IF80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IG80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IH80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="II80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IJ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IK80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IL80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IM80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IN80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IO80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IP80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IQ80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IR80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IS80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IT80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IU80" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="IV80" s="37" t="s">
+      <c r="C80" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="N80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="O80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="R80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="S80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="T80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="U80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="V80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="W80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="X80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BL80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BM80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BO80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BQ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BR80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BT80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BU80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BV80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BW80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BY80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BZ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CA80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CB80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CC80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CD80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CE80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CF80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CG80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CH80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CI80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CJ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CK80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CL80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CM80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CN80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CO80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CP80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CQ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CR80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CS80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CT80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CU80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CV80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CW80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CX80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CY80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="CZ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DA80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DB80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DC80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DD80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DE80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DF80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DG80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DH80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DI80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DJ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DK80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DL80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DM80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DN80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DO80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DP80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DQ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DR80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DS80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DT80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DU80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DV80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DW80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DX80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DY80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="DZ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EA80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EB80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EC80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="ED80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EE80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EF80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EG80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EH80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EI80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EJ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EK80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EL80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EM80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EN80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EO80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EP80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EQ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="ER80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="ES80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="ET80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EU80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EV80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EW80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EX80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EY80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="EZ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FA80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FB80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FC80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FD80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FE80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FF80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FG80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FH80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FI80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FJ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FK80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FL80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FM80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FN80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FO80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FP80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FQ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FR80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FS80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FT80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FU80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FV80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FW80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FX80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FY80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="FZ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GA80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GB80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GC80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GD80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GE80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GF80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GG80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GH80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GI80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GJ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GK80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GL80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GM80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GN80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GO80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GP80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GQ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GR80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GS80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GT80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GU80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GV80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GW80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GX80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GY80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="GZ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HA80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HB80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HC80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HD80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HE80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HF80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HG80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HH80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HI80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HJ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HK80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HL80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HM80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HN80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HO80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HP80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HQ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HR80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HS80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HT80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HU80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HV80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HW80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HX80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HY80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="HZ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IA80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IB80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IC80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="ID80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IE80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IF80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IG80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IH80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="II80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IJ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IK80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IL80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IM80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IN80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IO80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IP80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IQ80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IR80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IS80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IT80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IU80" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="IV80" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="37"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="61"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="56"/>
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
       <c r="G81" s="23"/>
     </row>
     <row r="82" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="37"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="46"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="43"/>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
       <c r="G82" s="23"/>
     </row>
     <row r="83" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="46"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="43"/>
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
       <c r="G83" s="23"/>
     </row>
     <row r="84" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="37"/>
-      <c r="B84" s="37"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
       <c r="C84" s="23"/>
       <c r="D84" s="23"/>
       <c r="E84" s="23"/>
@@ -7989,8 +7988,8 @@
       <c r="G84" s="23"/>
     </row>
     <row r="85" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="37"/>
-      <c r="B85" s="37"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="34"/>
       <c r="C85" s="23"/>
       <c r="D85" s="23"/>
       <c r="E85" s="23"/>
@@ -7998,9 +7997,9 @@
       <c r="G85" s="23"/>
     </row>
     <row r="86" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="37"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="45"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
@@ -8008,13 +8007,13 @@
     </row>
     <row r="87" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="31" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="B87" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
@@ -8023,13 +8022,13 @@
     </row>
     <row r="88" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="31" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="B88" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C88" s="62" t="s">
-        <v>451</v>
+      <c r="C88" s="57" t="s">
+        <v>432</v>
       </c>
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
@@ -8038,13 +8037,13 @@
     </row>
     <row r="89" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="31" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="B89" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C89" s="63" t="s">
-        <v>453</v>
+      <c r="C89" s="58" t="s">
+        <v>434</v>
       </c>
       <c r="D89" s="23"/>
       <c r="E89" s="23"/>
@@ -8053,13 +8052,13 @@
     </row>
     <row r="90" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="31" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="B90" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C90" s="63" t="s">
-        <v>455</v>
+      <c r="C90" s="58" t="s">
+        <v>436</v>
       </c>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
@@ -8068,13 +8067,13 @@
     </row>
     <row r="91" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="31" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="B91" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C91" s="63" t="s">
-        <v>457</v>
+      <c r="C91" s="58" t="s">
+        <v>438</v>
       </c>
       <c r="D91" s="23"/>
       <c r="E91" s="23"/>
@@ -8083,13 +8082,13 @@
     </row>
     <row r="92" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="31" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="B92" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
@@ -8098,13 +8097,13 @@
     </row>
     <row r="93" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A93" s="31" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="B93" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>461</v>
+        <v>587</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" s="23"/>
@@ -8113,13 +8112,13 @@
     </row>
     <row r="94" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" s="31" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="B94" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="D94" s="23"/>
       <c r="E94" s="23"/>
@@ -8128,13 +8127,13 @@
     </row>
     <row r="95" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A95" s="31" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="B95" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>465</v>
+        <v>617</v>
       </c>
       <c r="D95" s="23"/>
       <c r="E95" s="23"/>
@@ -8143,28 +8142,28 @@
     </row>
     <row r="96" spans="1:7" s="24" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="31" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="B96" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C96" s="63" t="s">
-        <v>467</v>
+      <c r="C96" s="58" t="s">
+        <v>446</v>
       </c>
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
       <c r="G96" s="23"/>
     </row>
-    <row r="97" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="31" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="B97" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C97" s="63" t="s">
-        <v>469</v>
+      <c r="C97" s="58" t="s">
+        <v>448</v>
       </c>
       <c r="D97" s="23"/>
       <c r="E97" s="23"/>
@@ -8173,13 +8172,13 @@
     </row>
     <row r="98" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="31" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="B98" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C98" s="63" t="s">
-        <v>471</v>
+      <c r="C98" s="58" t="s">
+        <v>450</v>
       </c>
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
@@ -8188,13 +8187,13 @@
     </row>
     <row r="99" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="31" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="B99" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="63" t="s">
-        <v>472</v>
+      <c r="C99" s="58" t="s">
+        <v>451</v>
       </c>
       <c r="D99" s="23"/>
       <c r="E99" s="23"/>
@@ -8203,13 +8202,13 @@
     </row>
     <row r="100" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="31" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="B100" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C100" s="63" t="s">
-        <v>474</v>
+      <c r="C100" s="58" t="s">
+        <v>453</v>
       </c>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
@@ -8218,28 +8217,28 @@
     </row>
     <row r="101" spans="1:7" s="24" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="31" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="B101" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C101" s="63" t="s">
-        <v>476</v>
+      <c r="C101" s="58" t="s">
+        <v>455</v>
       </c>
       <c r="D101" s="23"/>
       <c r="E101" s="23"/>
       <c r="F101" s="23"/>
       <c r="G101" s="23"/>
     </row>
-    <row r="102" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="31" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="B102" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C102" s="63" t="s">
-        <v>478</v>
+      <c r="C102" s="58" t="s">
+        <v>457</v>
       </c>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
@@ -8248,13 +8247,13 @@
     </row>
     <row r="103" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="31" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="B103" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C103" s="63" t="s">
-        <v>480</v>
+      <c r="C103" s="58" t="s">
+        <v>459</v>
       </c>
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>
@@ -8263,13 +8262,13 @@
     </row>
     <row r="104" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="31" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="B104" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C104" s="63" t="s">
-        <v>482</v>
+      <c r="C104" s="58" t="s">
+        <v>461</v>
       </c>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
@@ -8278,13 +8277,13 @@
     </row>
     <row r="105" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="31" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="B105" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="63" t="s">
-        <v>484</v>
+      <c r="C105" s="58" t="s">
+        <v>463</v>
       </c>
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
@@ -8293,13 +8292,13 @@
     </row>
     <row r="106" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A106" s="31" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="B106" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C106" s="63" t="s">
-        <v>486</v>
+      <c r="C106" s="58" t="s">
+        <v>465</v>
       </c>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
@@ -8308,13 +8307,13 @@
     </row>
     <row r="107" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="31" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="B107" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="63" t="s">
-        <v>488</v>
+      <c r="C107" s="58" t="s">
+        <v>467</v>
       </c>
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
@@ -8376,44 +8375,44 @@
       <c r="G113" s="23"/>
     </row>
     <row r="114" spans="1:7" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="64" t="s">
-        <v>489</v>
-      </c>
-      <c r="B114" s="64" t="s">
+      <c r="A114" s="59" t="s">
+        <v>468</v>
+      </c>
+      <c r="B114" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C114" s="65" t="s">
-        <v>490</v>
+      <c r="C114" s="60" t="s">
+        <v>469</v>
       </c>
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
       <c r="G114" s="23"/>
     </row>
-    <row r="115" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="64" t="s">
-        <v>491</v>
-      </c>
-      <c r="B115" s="64" t="s">
+    <row r="115" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="59" t="s">
+        <v>470</v>
+      </c>
+      <c r="B115" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C115" s="66" t="s">
-        <v>492</v>
+      <c r="C115" s="61" t="s">
+        <v>471</v>
       </c>
       <c r="D115" s="23"/>
       <c r="E115" s="23"/>
       <c r="F115" s="23"/>
       <c r="G115" s="23"/>
     </row>
-    <row r="116" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="64" t="s">
-        <v>493</v>
-      </c>
-      <c r="B116" s="64" t="s">
+    <row r="116" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="59" t="s">
+        <v>472</v>
+      </c>
+      <c r="B116" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>607</v>
+        <v>564</v>
       </c>
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
@@ -8421,14 +8420,14 @@
       <c r="G116" s="23"/>
     </row>
     <row r="117" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="64" t="s">
-        <v>494</v>
-      </c>
-      <c r="B117" s="64" t="s">
+      <c r="A117" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="B117" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C117" s="67" t="s">
-        <v>495</v>
+      <c r="C117" s="62" t="s">
+        <v>474</v>
       </c>
       <c r="D117" s="23"/>
       <c r="E117" s="23"/>
@@ -8436,14 +8435,14 @@
       <c r="G117" s="23"/>
     </row>
     <row r="118" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="64" t="s">
-        <v>496</v>
-      </c>
-      <c r="B118" s="64" t="s">
+      <c r="A118" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="B118" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
@@ -8451,14 +8450,14 @@
       <c r="G118" s="23"/>
     </row>
     <row r="119" spans="1:7" s="24" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="64" t="s">
-        <v>498</v>
-      </c>
-      <c r="B119" s="64" t="s">
+      <c r="A119" s="59" t="s">
+        <v>477</v>
+      </c>
+      <c r="B119" s="59" t="s">
         <v>27</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>608</v>
+        <v>565</v>
       </c>
       <c r="D119" s="23"/>
       <c r="E119" s="23"/>
@@ -8466,14 +8465,14 @@
       <c r="G119" s="23"/>
     </row>
     <row r="120" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="64" t="s">
-        <v>499</v>
-      </c>
-      <c r="B120" s="64" t="s">
+      <c r="A120" s="59" t="s">
+        <v>478</v>
+      </c>
+      <c r="B120" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="67" t="s">
-        <v>500</v>
+      <c r="C120" s="62" t="s">
+        <v>479</v>
       </c>
       <c r="D120" s="23"/>
       <c r="E120" s="23"/>
@@ -8481,14 +8480,14 @@
       <c r="G120" s="23"/>
     </row>
     <row r="121" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="64" t="s">
-        <v>501</v>
-      </c>
-      <c r="B121" s="64" t="s">
+      <c r="A121" s="59" t="s">
+        <v>480</v>
+      </c>
+      <c r="B121" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C121" s="68" t="s">
-        <v>502</v>
+      <c r="C121" s="63" t="s">
+        <v>481</v>
       </c>
       <c r="D121" s="23"/>
       <c r="E121" s="23"/>
@@ -8496,14 +8495,14 @@
       <c r="G121" s="23"/>
     </row>
     <row r="122" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="64" t="s">
-        <v>503</v>
-      </c>
-      <c r="B122" s="64" t="s">
+      <c r="A122" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="B122" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C122" s="68" t="s">
-        <v>504</v>
+      <c r="C122" s="63" t="s">
+        <v>483</v>
       </c>
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
@@ -8511,14 +8510,14 @@
       <c r="G122" s="23"/>
     </row>
     <row r="123" spans="1:7" s="24" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="64" t="s">
-        <v>505</v>
-      </c>
-      <c r="B123" s="64" t="s">
+      <c r="A123" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="B123" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C123" s="67" t="s">
-        <v>506</v>
+      <c r="C123" s="23" t="s">
+        <v>588</v>
       </c>
       <c r="D123" s="23"/>
       <c r="E123" s="23"/>
@@ -8526,14 +8525,14 @@
       <c r="G123" s="23"/>
     </row>
     <row r="124" spans="1:7" s="24" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="64" t="s">
-        <v>507</v>
-      </c>
-      <c r="B124" s="64" t="s">
+      <c r="A124" s="59" t="s">
+        <v>485</v>
+      </c>
+      <c r="B124" s="59" t="s">
         <v>27</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>508</v>
+        <v>589</v>
       </c>
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
@@ -8541,14 +8540,14 @@
       <c r="G124" s="23"/>
     </row>
     <row r="125" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="64" t="s">
-        <v>509</v>
-      </c>
-      <c r="B125" s="64" t="s">
+      <c r="A125" s="59" t="s">
+        <v>486</v>
+      </c>
+      <c r="B125" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C125" s="40" t="s">
-        <v>510</v>
+      <c r="C125" s="37" t="s">
+        <v>487</v>
       </c>
       <c r="D125" s="23"/>
       <c r="E125" s="23"/>
@@ -8556,29 +8555,29 @@
       <c r="G125" s="23"/>
     </row>
     <row r="126" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="64" t="s">
-        <v>511</v>
-      </c>
-      <c r="B126" s="64" t="s">
+      <c r="A126" s="59" t="s">
+        <v>488</v>
+      </c>
+      <c r="B126" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C126" s="40" t="s">
-        <v>512</v>
+      <c r="C126" s="37" t="s">
+        <v>489</v>
       </c>
       <c r="D126" s="23"/>
       <c r="E126" s="23"/>
       <c r="F126" s="23"/>
       <c r="G126" s="23"/>
     </row>
-    <row r="127" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="64" t="s">
-        <v>513</v>
-      </c>
-      <c r="B127" s="64" t="s">
+    <row r="127" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="B127" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C127" s="69" t="s">
-        <v>514</v>
+      <c r="C127" s="64" t="s">
+        <v>491</v>
       </c>
       <c r="D127" s="23"/>
       <c r="E127" s="23"/>
@@ -8586,14 +8585,14 @@
       <c r="G127" s="23"/>
     </row>
     <row r="128" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="64" t="s">
-        <v>515</v>
-      </c>
-      <c r="B128" s="64" t="s">
+      <c r="A128" s="59" t="s">
+        <v>492</v>
+      </c>
+      <c r="B128" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>516</v>
+        <v>590</v>
       </c>
       <c r="D128" s="23"/>
       <c r="E128" s="23"/>
@@ -8601,14 +8600,14 @@
       <c r="G128" s="23"/>
     </row>
     <row r="129" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="64" t="s">
-        <v>517</v>
-      </c>
-      <c r="B129" s="64" t="s">
+      <c r="A129" s="59" t="s">
+        <v>493</v>
+      </c>
+      <c r="B129" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="D129" s="23"/>
       <c r="E129" s="23"/>
@@ -8616,14 +8615,14 @@
       <c r="G129" s="23"/>
     </row>
     <row r="130" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="64" t="s">
-        <v>519</v>
-      </c>
-      <c r="B130" s="64" t="s">
+      <c r="A130" s="59" t="s">
+        <v>495</v>
+      </c>
+      <c r="B130" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C130" s="68" t="s">
-        <v>520</v>
+      <c r="C130" s="63" t="s">
+        <v>496</v>
       </c>
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
@@ -8631,14 +8630,14 @@
       <c r="G130" s="23"/>
     </row>
     <row r="131" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="64" t="s">
-        <v>521</v>
-      </c>
-      <c r="B131" s="64" t="s">
+      <c r="A131" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="B131" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C131" s="68" t="s">
-        <v>522</v>
+      <c r="C131" s="70" t="s">
+        <v>591</v>
       </c>
       <c r="D131" s="23"/>
       <c r="E131" s="23"/>
@@ -8646,14 +8645,14 @@
       <c r="G131" s="23"/>
     </row>
     <row r="132" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="64" t="s">
-        <v>523</v>
-      </c>
-      <c r="B132" s="64" t="s">
+      <c r="A132" s="59" t="s">
+        <v>498</v>
+      </c>
+      <c r="B132" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>524</v>
+        <v>592</v>
       </c>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
@@ -8661,29 +8660,29 @@
       <c r="G132" s="23"/>
     </row>
     <row r="133" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="64" t="s">
-        <v>525</v>
-      </c>
-      <c r="B133" s="64" t="s">
+      <c r="A133" s="59" t="s">
+        <v>499</v>
+      </c>
+      <c r="B133" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C133" s="40" t="s">
-        <v>526</v>
+      <c r="C133" s="37" t="s">
+        <v>500</v>
       </c>
       <c r="D133" s="23"/>
       <c r="E133" s="23"/>
       <c r="F133" s="23"/>
       <c r="G133" s="23"/>
     </row>
-    <row r="134" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="64" t="s">
-        <v>527</v>
-      </c>
-      <c r="B134" s="64" t="s">
+    <row r="134" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="59" t="s">
+        <v>501</v>
+      </c>
+      <c r="B134" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C134" s="40" t="s">
-        <v>528</v>
+      <c r="C134" s="37" t="s">
+        <v>593</v>
       </c>
       <c r="D134" s="23"/>
       <c r="E134" s="23"/>
@@ -8691,29 +8690,29 @@
       <c r="G134" s="23"/>
     </row>
     <row r="135" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="64" t="s">
-        <v>529</v>
-      </c>
-      <c r="B135" s="64" t="s">
+      <c r="A135" s="59" t="s">
+        <v>502</v>
+      </c>
+      <c r="B135" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C135" s="40" t="s">
-        <v>530</v>
+      <c r="C135" s="37" t="s">
+        <v>594</v>
       </c>
       <c r="D135" s="23"/>
       <c r="E135" s="23"/>
       <c r="F135" s="23"/>
       <c r="G135" s="23"/>
     </row>
-    <row r="136" spans="1:7" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="64" t="s">
-        <v>531</v>
-      </c>
-      <c r="B136" s="64" t="s">
+    <row r="136" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="59" t="s">
+        <v>503</v>
+      </c>
+      <c r="B136" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C136" s="40" t="s">
-        <v>532</v>
+      <c r="C136" s="37" t="s">
+        <v>595</v>
       </c>
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
@@ -8721,14 +8720,14 @@
       <c r="G136" s="23"/>
     </row>
     <row r="137" spans="1:7" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="64" t="s">
-        <v>533</v>
-      </c>
-      <c r="B137" s="70" t="s">
+      <c r="A137" s="59" t="s">
+        <v>504</v>
+      </c>
+      <c r="B137" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C137" s="40" t="s">
-        <v>606</v>
+      <c r="C137" s="37" t="s">
+        <v>596</v>
       </c>
       <c r="D137" s="23"/>
       <c r="E137" s="23"/>
@@ -8736,14 +8735,14 @@
       <c r="G137" s="23"/>
     </row>
     <row r="138" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="64" t="s">
-        <v>534</v>
-      </c>
-      <c r="B138" s="70" t="s">
+      <c r="A138" s="59" t="s">
+        <v>505</v>
+      </c>
+      <c r="B138" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C138" s="40" t="s">
-        <v>535</v>
+      <c r="C138" s="37" t="s">
+        <v>506</v>
       </c>
       <c r="D138" s="23"/>
       <c r="E138" s="23"/>
@@ -8751,14 +8750,14 @@
       <c r="G138" s="23"/>
     </row>
     <row r="139" spans="1:7" s="24" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="64" t="s">
-        <v>536</v>
-      </c>
-      <c r="B139" s="70" t="s">
+      <c r="A139" s="59" t="s">
+        <v>507</v>
+      </c>
+      <c r="B139" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C139" s="40" t="s">
-        <v>537</v>
+      <c r="C139" s="37" t="s">
+        <v>597</v>
       </c>
       <c r="D139" s="23"/>
       <c r="E139" s="23"/>
@@ -8766,14 +8765,14 @@
       <c r="G139" s="23"/>
     </row>
     <row r="140" spans="1:7" s="24" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="64" t="s">
-        <v>538</v>
-      </c>
-      <c r="B140" s="70" t="s">
+      <c r="A140" s="59" t="s">
+        <v>508</v>
+      </c>
+      <c r="B140" s="65" t="s">
         <v>21</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="D140" s="23"/>
       <c r="E140" s="23"/>
@@ -8781,14 +8780,14 @@
       <c r="G140" s="23"/>
     </row>
     <row r="141" spans="1:7" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="64" t="s">
-        <v>540</v>
-      </c>
-      <c r="B141" s="70" t="s">
+      <c r="A141" s="59" t="s">
+        <v>510</v>
+      </c>
+      <c r="B141" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C141" s="40" t="s">
-        <v>541</v>
+      <c r="C141" s="37" t="s">
+        <v>598</v>
       </c>
       <c r="D141" s="23"/>
       <c r="E141" s="23"/>
@@ -8851,13 +8850,13 @@
     </row>
     <row r="148" spans="1:7" s="24" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="28" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="B148" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>543</v>
+        <v>599</v>
       </c>
       <c r="D148" s="23"/>
       <c r="E148" s="23"/>
@@ -8866,13 +8865,13 @@
     </row>
     <row r="149" spans="1:7" s="24" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="28" t="s">
-        <v>545</v>
+        <v>513</v>
       </c>
       <c r="B149" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>549</v>
+        <v>600</v>
       </c>
       <c r="D149" s="23"/>
       <c r="E149" s="23"/>
@@ -8881,13 +8880,13 @@
     </row>
     <row r="150" spans="1:7" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="28" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="B150" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C150" s="30" t="s">
-        <v>550</v>
+        <v>601</v>
       </c>
       <c r="D150" s="23"/>
       <c r="E150" s="23"/>
@@ -8896,13 +8895,13 @@
     </row>
     <row r="151" spans="1:7" s="24" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="28" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
       <c r="B151" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="D151" s="23"/>
       <c r="E151" s="23"/>
@@ -8911,13 +8910,13 @@
     </row>
     <row r="152" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="28" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="B152" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
       <c r="D152" s="23"/>
       <c r="E152" s="23"/>
@@ -8926,13 +8925,13 @@
     </row>
     <row r="153" spans="1:7" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="28" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
       <c r="B153" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C153" s="23" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="D153" s="23"/>
       <c r="E153" s="23"/>
@@ -8941,13 +8940,13 @@
     </row>
     <row r="154" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="28" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="B154" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>568</v>
+        <v>534</v>
       </c>
       <c r="D154" s="23"/>
       <c r="E154" s="23"/>
@@ -8956,13 +8955,13 @@
     </row>
     <row r="155" spans="1:7" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="28" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
       <c r="B155" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>569</v>
+        <v>535</v>
       </c>
       <c r="D155" s="23"/>
       <c r="E155" s="23"/>
@@ -8971,13 +8970,13 @@
     </row>
     <row r="156" spans="1:7" s="24" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="28" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="B156" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>570</v>
+        <v>536</v>
       </c>
       <c r="D156" s="23"/>
       <c r="E156" s="23"/>
@@ -8986,13 +8985,13 @@
     </row>
     <row r="157" spans="1:7" s="24" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="28" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="B157" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>571</v>
+        <v>602</v>
       </c>
       <c r="D157" s="23"/>
       <c r="E157" s="23"/>
@@ -9001,13 +9000,13 @@
     </row>
     <row r="158" spans="1:7" s="24" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="28" t="s">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="B158" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>572</v>
+        <v>603</v>
       </c>
       <c r="D158" s="23"/>
       <c r="E158" s="23"/>
@@ -9016,13 +9015,13 @@
     </row>
     <row r="159" spans="1:7" s="24" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="28" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
       <c r="B159" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>573</v>
+        <v>604</v>
       </c>
       <c r="D159" s="23"/>
       <c r="E159" s="23"/>
@@ -9031,13 +9030,13 @@
     </row>
     <row r="160" spans="1:7" s="24" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="28" t="s">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="B160" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C160" s="30" t="s">
-        <v>574</v>
+        <v>605</v>
       </c>
       <c r="D160" s="23"/>
       <c r="E160" s="23"/>
@@ -9046,13 +9045,13 @@
     </row>
     <row r="161" spans="1:7" s="24" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="28" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
       <c r="B161" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>575</v>
+        <v>606</v>
       </c>
       <c r="D161" s="23"/>
       <c r="E161" s="23"/>
@@ -9061,13 +9060,13 @@
     </row>
     <row r="162" spans="1:7" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="28" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="B162" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
       <c r="D162" s="23"/>
       <c r="E162" s="23"/>
@@ -9076,13 +9075,13 @@
     </row>
     <row r="163" spans="1:7" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="28" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
       <c r="B163" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>576</v>
+        <v>607</v>
       </c>
       <c r="D163" s="23"/>
       <c r="E163" s="23"/>
@@ -9091,13 +9090,13 @@
     </row>
     <row r="164" spans="1:7" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="28" t="s">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="B164" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="D164" s="23"/>
       <c r="E164" s="23"/>
@@ -9106,13 +9105,13 @@
     </row>
     <row r="165" spans="1:7" s="24" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="28" t="s">
-        <v>565</v>
+        <v>531</v>
       </c>
       <c r="B165" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>579</v>
+        <v>538</v>
       </c>
       <c r="D165" s="23"/>
       <c r="E165" s="23"/>
@@ -9121,13 +9120,13 @@
     </row>
     <row r="166" spans="1:7" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="28" t="s">
-        <v>566</v>
+        <v>532</v>
       </c>
       <c r="B166" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="D166" s="23"/>
       <c r="E166" s="23"/>
@@ -9136,13 +9135,13 @@
     </row>
     <row r="167" spans="1:7" s="24" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="28" t="s">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="B167" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C167" s="30" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="D167" s="23"/>
       <c r="E167" s="23"/>
